--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2132.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2132.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
+        <v>0.6567775011062622</v>
+      </c>
+      <c r="B1">
+        <v>1.470815896987915</v>
+      </c>
+      <c r="C1">
         <v>-1</v>
       </c>
-      <c r="B1">
-        <v>2.199867836859225</v>
-      </c>
-      <c r="C1">
-        <v>1.085603087785076</v>
-      </c>
       <c r="D1">
-        <v>0.8321528307673799</v>
+        <v>2.318496227264404</v>
       </c>
       <c r="E1">
-        <v>0.7838182802063803</v>
+        <v>1.378781199455261</v>
       </c>
     </row>
   </sheetData>
